--- a/temp.xlsx
+++ b/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08256c9df46840dd/Documents/GitHub/simple-java-maven-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{6CD8DE3A-96B8-4FB3-A736-195B35AA2EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AF86DCA-C09C-4B9B-A27B-85E593CF6023}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{6CD8DE3A-96B8-4FB3-A736-195B35AA2EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{081C3387-D476-4E7B-970E-605F09114306}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3817F1CE-548A-4FD4-88B9-56ACBD99EE3E}"/>
   </bookViews>
@@ -35,21 +35,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Sl.no</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Jaidip,12121</t>
-  </si>
-  <si>
-    <t>Sash,12121</t>
-  </si>
-  <si>
     <t>DOB</t>
+  </si>
+  <si>
+    <t>Sun 22/05/2022</t>
+  </si>
+  <si>
+    <t>EnvName</t>
+  </si>
+  <si>
+    <t>CT0A</t>
+  </si>
+  <si>
+    <t>System / LD -  Date</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>Fri 01/04/2016, Mon 04/04/2016</t>
+  </si>
+  <si>
+    <t>JG</t>
+  </si>
+  <si>
+    <t>Sash</t>
+  </si>
+  <si>
+    <t>sjdhj</t>
+  </si>
+  <si>
+    <t>sjdhj2121</t>
+  </si>
+  <si>
+    <t>102O</t>
+  </si>
+  <si>
+    <t>CT0B</t>
+  </si>
+  <si>
+    <t>102O/123B</t>
+  </si>
+  <si>
+    <t>Fri 01/04/2016</t>
   </si>
 </sst>
 </file>
@@ -85,8 +118,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,51 +437,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E26CDB6-A729-40B6-99E2-C70C236F1E57}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>16</v>
       </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1212</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1212</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/temp.xlsx
+++ b/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08256c9df46840dd/Documents/GitHub/simple-java-maven-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{6CD8DE3A-96B8-4FB3-A736-195B35AA2EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{081C3387-D476-4E7B-970E-605F09114306}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{6CD8DE3A-96B8-4FB3-A736-195B35AA2EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E65C9E1-8ED3-4FCF-A40D-EFA3215E92A9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3817F1CE-548A-4FD4-88B9-56ACBD99EE3E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Fri 01/04/2016</t>
+  </si>
+  <si>
+    <t>Wed 25/05/2022</t>
+  </si>
+  <si>
+    <t>102B</t>
   </si>
 </sst>
 </file>
@@ -437,19 +443,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E26CDB6-A729-40B6-99E2-C70C236F1E57}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -462,8 +468,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -473,8 +482,11 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -484,8 +496,11 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -498,8 +513,11 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>9</v>
@@ -510,8 +528,11 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -521,8 +542,11 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -532,8 +556,11 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -546,8 +573,11 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>9</v>
@@ -556,6 +586,9 @@
         <v>1212</v>
       </c>
       <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
         <v>11</v>
       </c>
     </row>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08256c9df46840dd/Documents/GitHub/simple-java-maven-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{6CD8DE3A-96B8-4FB3-A736-195B35AA2EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E65C9E1-8ED3-4FCF-A40D-EFA3215E92A9}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{6CD8DE3A-96B8-4FB3-A736-195B35AA2EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87B7ADA7-8C03-4B5F-A949-AC1589FE93F2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3817F1CE-548A-4FD4-88B9-56ACBD99EE3E}"/>
   </bookViews>
@@ -85,10 +85,10 @@
     <t>Fri 01/04/2016</t>
   </si>
   <si>
-    <t>Wed 25/05/2022</t>
-  </si>
-  <si>
     <t>102B</t>
+  </si>
+  <si>
+    <t>Thu 26/05/2022</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +469,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -543,7 +543,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
